--- a/data/trans_orig/P64DS1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64DS1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C13E17-DC40-4912-A5A1-0F51EAD6DC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EBB9B15-9039-4C57-B916-B88A0103DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3EA6F1A6-3608-4242-ADC6-AD8637FF77FB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9C93DC5-B88A-4670-950D-0EB18FF8C004}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="342">
   <si>
     <t>Población según el método de desplazamiento que utiliza para ir al trabajo / respuesta 1 en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,11%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>13,48%</t>
+    <t>14,0%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>En otros medios</t>
@@ -107,955 +107,958 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>En transporte público (autobús, metro, tren)</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>En vehículo particular (automóvil, moto)</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>En bicicleta</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>Andando</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>En transporte público (autobús, metro, tren)</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>En vehículo particular (automóvil, moto)</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>En bicicleta</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>Andando</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>53,1%</t>
   </si>
   <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
   </si>
   <si>
     <t>61,86%</t>
   </si>
   <si>
+    <t>59,8%</t>
+  </si>
+  <si>
     <t>64,1%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1470,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA54C4D-070F-404C-841C-999B4D19C10B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE9AC45-9F13-4E6C-B772-1DF4B51F0F13}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2342,13 +2345,13 @@
         <v>29979</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2366,13 @@
         <v>2507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2378,13 +2381,13 @@
         <v>938</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2393,7 +2396,7 @@
         <v>3445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>130</v>
@@ -2450,7 +2453,7 @@
         <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2468,13 @@
         <v>336526</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>301</v>
@@ -2480,28 +2483,28 @@
         <v>214592</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>551119</v>
+        <v>551118</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2519,13 @@
         <v>6454</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2531,10 +2534,10 @@
         <v>3075</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>154</v>
@@ -2594,7 +2597,7 @@
         <v>302</v>
       </c>
       <c r="N23" s="7">
-        <v>231602</v>
+        <v>231601</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>164</v>
@@ -2645,7 +2648,7 @@
         <v>1018</v>
       </c>
       <c r="N24" s="7">
-        <v>856592</v>
+        <v>856591</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>62</v>
@@ -2704,10 +2707,10 @@
         <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2725,13 @@
         <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2773,13 +2776,13 @@
         <v>11665</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>28</v>
@@ -2788,13 +2791,13 @@
         <v>18343</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -2803,13 +2806,13 @@
         <v>30007</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2827,13 @@
         <v>428554</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>399</v>
@@ -2839,13 +2842,13 @@
         <v>263589</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>771</v>
@@ -2854,13 +2857,13 @@
         <v>692143</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2878,13 @@
         <v>9084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2890,13 +2893,13 @@
         <v>4137</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -2905,13 +2908,13 @@
         <v>13221</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2929,13 @@
         <v>109360</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>248</v>
@@ -2941,13 +2944,13 @@
         <v>161684</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>359</v>
@@ -2956,13 +2959,13 @@
         <v>271044</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +3021,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3030,13 +3033,13 @@
         <v>12127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -3045,13 +3048,13 @@
         <v>12719</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -3060,13 +3063,13 @@
         <v>24845</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3084,13 @@
         <v>3750</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3102,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -3111,13 +3114,13 @@
         <v>3750</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,10 +3138,10 @@
         <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -3147,13 +3150,13 @@
         <v>10177</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -3162,13 +3165,13 @@
         <v>19521</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3186,13 @@
         <v>206618</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>165</v>
@@ -3198,13 +3201,13 @@
         <v>98650</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>386</v>
@@ -3213,13 +3216,13 @@
         <v>305268</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,10 +3240,10 @@
         <v>82</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3249,13 +3252,13 @@
         <v>910</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -3264,13 +3267,13 @@
         <v>4087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3288,13 @@
         <v>84639</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>180</v>
@@ -3300,13 +3303,13 @@
         <v>103770</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M37" s="7">
         <v>276</v>
@@ -3318,10 +3321,10 @@
         <v>161</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3380,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3389,13 +3392,13 @@
         <v>1515</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3404,13 +3407,13 @@
         <v>435</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -3419,13 +3422,13 @@
         <v>1950</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3443,13 @@
         <v>697</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3461,7 +3464,7 @@
         <v>20</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3470,13 +3473,13 @@
         <v>697</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,7 +3500,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3506,13 +3509,13 @@
         <v>1709</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3521,13 +3524,13 @@
         <v>1709</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3545,13 @@
         <v>6760</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H42" s="7">
         <v>11</v>
@@ -3557,13 +3560,13 @@
         <v>5292</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M42" s="7">
         <v>21</v>
@@ -3572,13 +3575,13 @@
         <v>12052</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3596,13 @@
         <v>693</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3614,7 +3617,7 @@
         <v>20</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3623,13 +3626,13 @@
         <v>693</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3647,13 @@
         <v>10107</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H44" s="7">
         <v>22</v>
@@ -3659,13 +3662,13 @@
         <v>11595</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M44" s="7">
         <v>37</v>
@@ -3674,13 +3677,13 @@
         <v>21702</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3751,13 @@
         <v>74390</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H46" s="7">
         <v>81</v>
@@ -3763,13 +3766,13 @@
         <v>55735</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M46" s="7">
         <v>148</v>
@@ -3778,13 +3781,13 @@
         <v>130125</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3802,13 @@
         <v>10126</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>307</v>
+        <v>102</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="H47" s="7">
         <v>7</v>
@@ -3814,13 +3817,13 @@
         <v>4788</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="M47" s="7">
         <v>19</v>
@@ -3829,10 +3832,10 @@
         <v>14914</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>310</v>
@@ -3850,13 +3853,13 @@
         <v>51782</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H48" s="7">
         <v>91</v>
@@ -3865,13 +3868,13 @@
         <v>72255</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M48" s="7">
         <v>142</v>
@@ -3934,10 +3937,10 @@
         <v>324</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3955,13 @@
         <v>25815</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H50" s="7">
         <v>20</v>
@@ -3967,10 +3970,10 @@
         <v>24863</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>328</v>
+        <v>68</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>329</v>
@@ -3985,10 +3988,10 @@
         <v>330</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4006,13 @@
         <v>407149</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H51" s="7">
         <v>778</v>
@@ -4018,13 +4021,13 @@
         <v>546386</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M51" s="7">
         <v>1179</v>
@@ -4033,13 +4036,13 @@
         <v>953535</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,7 +4098,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64DS1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64DS1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EBB9B15-9039-4C57-B916-B88A0103DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84725CDC-4C1D-4049-A209-E5FA4BFF5A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9C93DC5-B88A-4670-950D-0EB18FF8C004}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{815DC454-BA60-4D52-91BA-B77246C1FA71}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE9AC45-9F13-4E6C-B772-1DF4B51F0F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BED7F4-3568-4C3C-A6A7-E6484EB89184}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
